--- a/Testing/Casos de Prueba - Ejecución - Ciclos - Defectos - Prueba Exploratoria.xlsx
+++ b/Testing/Casos de Prueba - Ejecución - Ciclos - Defectos - Prueba Exploratoria.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgB5AJWvaKm7Sq/wImvJwmK3ZlxJQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgYXpCiTlfJFPWSPr9vm1Ye8hqK2Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="332">
   <si>
     <t>Id</t>
   </si>
@@ -60,20 +60,422 @@
     <t>DB_LOGIN_001</t>
   </si>
   <si>
-    <t>Login con credenciales no validas</t>
-  </si>
-  <si>
-    <t>Al intentar iniciar sesión con credenciales no válidas el formulario muestra mensaje de error.</t>
-  </si>
-  <si>
-    <t>DH_ALTA_USUARIO_003 Registrar un usuario. 
-Contar con los siguientes datos:
-URL
-USUARIO
-PASSWORD</t>
+    <t>Login con contraseña no válida</t>
+  </si>
+  <si>
+    <t>Al intentar iniciar sesión con una contraseña no válidas el formulario muestra mensaje de error.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">DB_ALTA_USUARIO_003
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>contar con email registrado</t>
+    </r>
   </si>
   <si>
     <t>1.</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ingresar a </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/login</t>
+    </r>
+  </si>
+  <si>
+    <t>Se visualiza la página de login de DB</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Prueba de Humo</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Completar campo de correro electrónico con un mail válido, registrado.</t>
+  </si>
+  <si>
+    <t>En el campo mail se visualiza el mail ingresado</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Completar campo de contraseña con una contraseña siete o más caracteres
+que no se corresponda con el mail ingresado previamente</t>
+  </si>
+  <si>
+    <t>En el campo contraseña se visualizan puntos en lugar de los caracteres de la contraseña.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Click en el botón ingresar.</t>
+  </si>
+  <si>
+    <t>El formulario indica através de un mensajes que las credenciales no son válidas.</t>
+  </si>
+  <si>
+    <t>DB_LOGIN_002</t>
+  </si>
+  <si>
+    <t>Login con email no válido</t>
+  </si>
+  <si>
+    <t>Al intentar iniciar sesión con un mail con formato 
+no válido el formulario debe renderizar el error</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">ALTA_USUARIO_003
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>contar con usuario  y password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ingresar a </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/login</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Completar campo de correro electrónico con un mail sin incluir el signo
+ "@" </t>
+  </si>
+  <si>
+    <t>Debajo del campo de email se renderiza un mensaje indicando que el formato del email ingresado no es válido</t>
+  </si>
+  <si>
+    <t>DB_LOGIN_003</t>
+  </si>
+  <si>
+    <t>Login con email no registrado</t>
+  </si>
+  <si>
+    <t>Al intentar iniciar sesión con un mail no registrado 
+el sistema indica que el usuario no se encuentra 
+registrado.</t>
+  </si>
+  <si>
+    <t>Contar con un email y una contraseña 
+de siete o más caracteres</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ingresar a </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/login</t>
+    </r>
+  </si>
+  <si>
+    <t>Completar campo de correro electrónico con un email no registrado en DB</t>
+  </si>
+  <si>
+    <t>Completar campo de contraseña con una contraseña de siete o más caracteres</t>
+  </si>
+  <si>
+    <t>Click en botón ingresar</t>
+  </si>
+  <si>
+    <t>El formulario indica que el mail no se encuentra asociado a ningún usuario</t>
+  </si>
+  <si>
+    <t>DB_LOGIN_004</t>
+  </si>
+  <si>
+    <t>Login con contraseña de menos de siete caracteres</t>
+  </si>
+  <si>
+    <t>Al intentar iniciar sesión con un mail registrado 
+y una contraseña de menos de siete caracteres 
+el formulario indica que la contraseña no puede
+tener menos de siete caracteres</t>
+  </si>
+  <si>
+    <t>Contar con un email registrado e ingresar una contraseña 
+de menos de siete caracteres</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ingresar a </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/login</t>
+    </r>
+  </si>
+  <si>
+    <t>Completar campo de correro electrónico con un email registrado en DB</t>
+  </si>
+  <si>
+    <t>Completar campo de contraseña con una contraseña de menos de siete  caracteres</t>
+  </si>
+  <si>
+    <t>Debajo del campo de contraseña se renderiza mensaje de que la contraseña debe contener siete o más caracteres</t>
+  </si>
+  <si>
+    <t>DB_LOGIN_005</t>
+  </si>
+  <si>
+    <t>Login con credenciales válidas</t>
+  </si>
+  <si>
+    <t>Login exitoso con credenciales válidas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">ALTA_USUARIO_003
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>contar con usuario  y password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ingresar a </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/login</t>
+    </r>
+  </si>
+  <si>
+    <t>Completar campo de contraseña con una contraseña asociada al usuario</t>
+  </si>
+  <si>
+    <t>El usuario es redirigido al home de DB y en la esquina superior derecha ve sus iniciales indicando que se encuentra logueado</t>
+  </si>
+  <si>
+    <t>DB_RESERVA_001</t>
+  </si>
+  <si>
+    <t>Reserva de producto.</t>
+  </si>
+  <si>
+    <t>El usuario logueado deberá poder realizar una reserva.</t>
+  </si>
+  <si>
+    <t>DB_LOGIN_001 login usuario
+DB_BUSQUEDA_01 buscar destino y fechas</t>
+  </si>
+  <si>
+    <t>Seleccionar producto deseado y clickear en botón ver más</t>
+  </si>
+  <si>
+    <t>Se visualiza el formulario de reserva</t>
+  </si>
+  <si>
+    <t>Pruba de Humo</t>
+  </si>
+  <si>
+    <t>Completar campos de nombre y apellido.</t>
+  </si>
+  <si>
+    <t>Se visualizan el nombre y el apellido en los campos correspondientes</t>
+  </si>
+  <si>
+    <t>Completar campo de email con email válido.</t>
+  </si>
+  <si>
+    <t>Se visualiza el email ingresado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completar campo de ciudad </t>
+  </si>
+  <si>
+    <t>Se visualiza el nombre de la ciudad.</t>
+  </si>
+  <si>
+    <t>Click botón reservar.</t>
+  </si>
+  <si>
+    <t>Se visualiza mensaje de éxito.</t>
+  </si>
+  <si>
+    <t>DB_ALTA_USUARIO_003</t>
+  </si>
+  <si>
+    <t>Registro de usuario con credenciales válidas</t>
+  </si>
+  <si>
+    <t>Un usuario no registrado puede crear cuenta proporcionando datos válidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contar con email </t>
+  </si>
+  <si>
+    <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/signup</t>
+  </si>
+  <si>
+    <t>Se visualiza el formulario de registro.</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Prueba de humo</t>
+  </si>
+  <si>
+    <t>Completar campo de nombre sólo con caracteres alfabéticos</t>
+  </si>
+  <si>
+    <t>Se visualiza el nombre ingresado.</t>
+  </si>
+  <si>
+    <t>Completar campo de apellido sólo con caracteres alfabéticos</t>
+  </si>
+  <si>
+    <t>Se visualiza el apellidoingresado</t>
+  </si>
+  <si>
+    <t>Ingresar contraseña válida en el campo de contraseña</t>
+  </si>
+  <si>
+    <t>Se ven puntos en lugar de los caracteres de la contraseña ingresada</t>
+  </si>
+  <si>
+    <t>Repetir contraseña en el campo confirmar contraseña</t>
+  </si>
+  <si>
+    <t>Click en crear cuenta</t>
+  </si>
+  <si>
+    <t>Se visualiza mensajes de creación de usuario exitosa</t>
+  </si>
+  <si>
+    <t>DB_ALTA_USUARIO_002</t>
+  </si>
+  <si>
+    <t>Registro de usuario con nombre alfnumérico</t>
+  </si>
+  <si>
+    <t>Contar con email</t>
+  </si>
+  <si>
+    <t>Completar campo de nombre con caracteres alfanumérico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se visualiza el nombre ingresado </t>
+  </si>
+  <si>
+    <t>Completar campo de contraseña</t>
+  </si>
+  <si>
+    <t>Se visualiza mensaje debajo del nombre indicando que solo se permiten letras</t>
+  </si>
+  <si>
+    <t>DB_ALTA_USUARIO_001</t>
+  </si>
+  <si>
+    <t>Contraseñas que no coinciden</t>
+  </si>
+  <si>
+    <t>Completar campo de contraseña con formato válido</t>
+  </si>
+  <si>
+    <t>Se visualizan puntos en lugar de los caracteres de la contraseña</t>
+  </si>
+  <si>
+    <t>Completar campo de email con formato válido</t>
+  </si>
+  <si>
+    <t>Se visualiza el email ingresado en el campo correspondiente</t>
+  </si>
+  <si>
+    <t>Completar campo de confirmar contraseña</t>
+  </si>
+  <si>
+    <t>Se renderiza debajo del campo confirmar contraseña el mensaje "Las contraseñas deben ser iguales"</t>
+  </si>
+  <si>
+    <t>DB_ALTA_USUARIO_005</t>
+  </si>
+  <si>
+    <t>Registro de usuario con formato no válido de email</t>
+  </si>
+  <si>
+    <t>Completar campo de email sin incluir el @</t>
+  </si>
+  <si>
+    <t>Debajo del campo de email se visualiza mensaje de que el email no es válido</t>
+  </si>
+  <si>
+    <t>DB_BUSQUEDA_01</t>
+  </si>
+  <si>
+    <t>Búsqueda por fecha desde página principal fechas válidas</t>
+  </si>
+  <si>
+    <t>El usuario deberá poder realizar búsquedas por fecha para encontrar el producto que coincida con sus intereses</t>
+  </si>
+  <si>
+    <t>Ingresar a DB</t>
   </si>
   <si>
     <r>
@@ -89,150 +491,39 @@
     </r>
   </si>
   <si>
-    <t>Se visualiza la página de login de DB</t>
-  </si>
-  <si>
-    <t>Reviewed</t>
-  </si>
-  <si>
-    <t>Nicolás</t>
-  </si>
-  <si>
-    <t>Prueba de Humo</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Completar campo de correro electrónico con un mail válido, no registrado.</t>
-  </si>
-  <si>
-    <t>En el campo mail se visualiza el mail ingresado</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>Completar campo de contraseña con una contraseña de más de siete caracteres.</t>
-  </si>
-  <si>
-    <t>En el campo contraseña se visualizan puntos en lugar de los caracteres de la contraseña.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Click en el botón ingresar.</t>
-  </si>
-  <si>
-    <t>El formulario indica através de un mensajes que las credenciales no son válidas.</t>
-  </si>
-  <si>
-    <t>DB_RESERVA_001</t>
-  </si>
-  <si>
-    <t>Reserva de producto.</t>
-  </si>
-  <si>
-    <t>El usuario registrado deberá poder realizar una reserva.</t>
-  </si>
-  <si>
-    <t>DB_LOGIN_001 login usuario
-DB_BUSQUEDA_01 buscar destino y fechas</t>
-  </si>
-  <si>
-    <t>Seleccionar producto deseado y clickear en botón ver más</t>
-  </si>
-  <si>
-    <t>Se visualiza el formulario de reserva</t>
-  </si>
-  <si>
-    <t>TO DO</t>
-  </si>
-  <si>
-    <t>Pruba de Humo</t>
-  </si>
-  <si>
-    <t>Completar campos de nombre y apellido.</t>
-  </si>
-  <si>
-    <t>Se visualizan el nombre y el apellido en los campos correspondientes</t>
-  </si>
-  <si>
-    <t>Completar campo de email con email válido.</t>
-  </si>
-  <si>
-    <t>Se visualiza el email ingresado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completar campo de ciudad </t>
-  </si>
-  <si>
-    <t>Se visualiza el nombre de la ciudad.</t>
-  </si>
-  <si>
-    <t>Click botón reservar.</t>
-  </si>
-  <si>
-    <t>Se visualiza mensaje de éxito.</t>
-  </si>
-  <si>
-    <t>DB_ALTA_USUARIO_003</t>
-  </si>
-  <si>
-    <t>Registro de usuario con credenciales válidas</t>
-  </si>
-  <si>
-    <t>Al dar clic en el botón de reserva en página de detalle de producto con un usuario no logueado este debe ser redirigido al bloque de login. Dicho bloque debe contener un texto en su parte superior que indique que el login es obligatorio y que en caso de no estar registrada, la persona deberá registrarse.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario no esta registrado en la aplicación </t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Ingresar a </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/signup</t>
-    </r>
-  </si>
-  <si>
-    <t>Se visualiza el formulario de registro.</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Prueba de humo</t>
-  </si>
-  <si>
-    <t>Se visualizan el nombre y el apellido ingresado.</t>
-  </si>
-  <si>
-    <t>Completar campos de contraseña y confirmar contraseña con los mismos datos.</t>
-  </si>
-  <si>
-    <t>Se visualizan puntos en lugar de los caracteres de la contraseña.</t>
-  </si>
-  <si>
-    <t>Click en botón crear cuenta.</t>
-  </si>
-  <si>
-    <t>Se visualiza el home de DB. En la esquina superior izq se visualizan las iniciales del usuario ahora logueado.</t>
-  </si>
-  <si>
-    <t>DB_BUSQUEDA_01</t>
-  </si>
-  <si>
-    <t>Búsqueda por fecha desde página principal</t>
-  </si>
-  <si>
-    <t>El usuario deberá poder realizar búsquedas por fecha para encontrar el producto que coincida con sus intereses</t>
+    <t>Se visualiza el home de DB.</t>
+  </si>
+  <si>
+    <t>Prueba de Regresion</t>
+  </si>
+  <si>
+    <t>Hacer click en barra de Check in - Check out</t>
+  </si>
+  <si>
+    <t>Se visualiza calendario</t>
+  </si>
+  <si>
+    <t>Seleccionar fechas válidas para el check in - check out</t>
+  </si>
+  <si>
+    <t>Se visualizan las fechas seleccionadas.</t>
+  </si>
+  <si>
+    <t>Click en botón Buscar</t>
+  </si>
+  <si>
+    <t>Se visualizan desde el home de DB las opciones disponibles para la fecha seleccionada.</t>
+  </si>
+  <si>
+    <t>DB_BUSQUEDA_02</t>
+  </si>
+  <si>
+    <t>Búsqueda por fecha desde página principal
+fechas pasadas</t>
+  </si>
+  <si>
+    <t>El usuario no podrá realizar reservas para fechas 
+pasadas</t>
   </si>
   <si>
     <r>
@@ -248,41 +539,339 @@
     </r>
   </si>
   <si>
-    <t>Se visualiza el home de DB.</t>
-  </si>
-  <si>
-    <t>Prueba de Regresion</t>
-  </si>
-  <si>
-    <t>Seleccionar del menú desplegable "¿A dónde vamos?" una ciudad.</t>
+    <t>Seleccionar fechas pasadas al momento de realizar el test</t>
+  </si>
+  <si>
+    <t>No es posible seleccionar fechas anteriores al momento de realizar el test</t>
+  </si>
+  <si>
+    <t>DB_BUSQUEDA_03</t>
+  </si>
+  <si>
+    <t>Búsqueda por lugar desde página principal</t>
+  </si>
+  <si>
+    <t>El usuario deberá poder realizar búsquedas por lugar para encontrar el producto que coincida con sus intereses</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Ingresar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Hacer click en barra ¿A dónde Vamos?</t>
+  </si>
+  <si>
+    <t>Se visualiza menú desplegable con ciudades</t>
+  </si>
+  <si>
+    <t>Seleccionar una ciudad</t>
   </si>
   <si>
     <t>Se visualiza la ciudad seleccionada.</t>
   </si>
   <si>
-    <t>Seleccionar fechas válidad para el check in - check out</t>
-  </si>
-  <si>
-    <t>Se visualizan las fechas seleccionadas.</t>
-  </si>
-  <si>
-    <t>Click en botón Buscar</t>
-  </si>
-  <si>
-    <t>Se visualizan desde el home de DB las opciones disponibles para el lugar y la fecha seleccionados.</t>
+    <t>Se visualizan desde el home de DB las opciones disponibles para la ciudad seleccionada.</t>
+  </si>
+  <si>
+    <t>DB_BUSQUEDA_04</t>
+  </si>
+  <si>
+    <t>Búsqueda por lugar y fecha desde página principal</t>
+  </si>
+  <si>
+    <t>El usuario deberá poder realizar búsquedas por lugar y fecha para encontrar el producto que coincida con sus intereses</t>
   </si>
   <si>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">Ingresar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Se visualizan desde el home de DB las opciones disponibles para la ciudad en la fecha seleccionada.</t>
+  </si>
+  <si>
+    <t>DB_RESERVA_01</t>
+  </si>
+  <si>
+    <t>Reserva de producto exitosa</t>
+  </si>
+  <si>
+    <t>El usuario registrado y logueado podrá realizar reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_ALTA_USUARIO_003
+DB_LOGIN_004
+DB_BUSQUEDA_01 / _03 / _04
+Haber iniciado sesión y filtrado prodcutos
+</t>
+  </si>
+  <si>
+    <t>Una vez filtrado el producto hacer click en ver más</t>
+  </si>
+  <si>
+    <t>Se visualiza página de detalles del producto</t>
+  </si>
+  <si>
+    <t>Scroll hacia abajo y click en iniciar reserva</t>
+  </si>
+  <si>
+    <t>Se visualiza página de reserva con calendario, fecha de llegada, detalles y botón de reserva</t>
+  </si>
+  <si>
+    <t>Seleccionar desde el menú desplegable horario de llegada</t>
+  </si>
+  <si>
+    <t>Se visualiza horario seleccionado</t>
+  </si>
+  <si>
+    <t>Click en botón confirmar reserva</t>
+  </si>
+  <si>
+    <t>Se visualiza mensaje de reserva realizada con éxito</t>
+  </si>
+  <si>
+    <t>DB_RESERVA_02</t>
+  </si>
+  <si>
+    <t>Reserva de producto sin iniciar sesión</t>
+  </si>
+  <si>
+    <t>El usuario registrado  y logueado podrá realizar reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_ALTA_USUARIO_003
+DB_BUSQUEDA_01 / _03 / _04
+Filtrar productos desde el home
+</t>
+  </si>
+  <si>
+    <t>El usuario no logueado es rediriguido a la pantalla de inicio de sesión con mensaje indicando que es necesario iniciar sesión para poder continuar</t>
+  </si>
+  <si>
+    <t>DB_0473_02</t>
+  </si>
+  <si>
+    <t>Creación de producto</t>
+  </si>
+  <si>
+    <t>El usuario administrador puede crear productos</t>
+  </si>
+  <si>
+    <t>Contar con cuenta de admin y su 
+correspondiente contraseña
+admin@gmail.com
+admin1234</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Realizar los pasos del caso de prueba </t>
     </r>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/</t>
+      <t>DB_0473_01</t>
     </r>
+  </si>
+  <si>
+    <t>Se visualiza la página de administración.</t>
+  </si>
+  <si>
+    <t>Completar campo de nombre de producto</t>
+  </si>
+  <si>
+    <t>Se visualiza en pantalla el nombre ingresado</t>
+  </si>
+  <si>
+    <t>Seleccionar la categoría del producto previamente ingresado</t>
+  </si>
+  <si>
+    <t>Se visualiza la categoría seleccionada</t>
+  </si>
+  <si>
+    <t>Seleccionar ciudad</t>
+  </si>
+  <si>
+    <t>Completar campo de descripción</t>
+  </si>
+  <si>
+    <t>Se visualiza la descripción ingresada</t>
+  </si>
+  <si>
+    <t>Completar campo de direccion</t>
+  </si>
+  <si>
+    <t>Se visualiza la direccion ingresada</t>
+  </si>
+  <si>
+    <t>Seleccionar las características del producto (checkbox)</t>
+  </si>
+  <si>
+    <t>Se visualizan las caracteracterísticas seleccionadas con un tilde</t>
+  </si>
+  <si>
+    <t>Carga imagen completando con input de tipo texto</t>
+  </si>
+  <si>
+    <t>Se visualiza la url de la imagen en el campo correspondiente</t>
+  </si>
+  <si>
+    <t>Completar campos de políticas de seguridad</t>
+  </si>
+  <si>
+    <t>Se visualizan las políticas ingresadas en cada campo</t>
+  </si>
+  <si>
+    <t>Click en botón crear</t>
+  </si>
+  <si>
+    <t>Se visualiza un mensajes de creación de producto exitosa junto a un ícono de DB y un link para regrasar al home.</t>
+  </si>
+  <si>
+    <t>DB_0473_03</t>
+  </si>
+  <si>
+    <t>Creación de producto
+con un campo en blanco.</t>
+  </si>
+  <si>
+    <t>Creación de producto con campos sin complerar</t>
+  </si>
+  <si>
+    <t>Contar con cuenta de admin y su 
+correspondiente contraseña</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Realizar los pasos del caso de prueba </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>DB_0473_01</t>
+    </r>
+  </si>
+  <si>
+    <t>Dejar campo de nombre de producto en blanco</t>
+  </si>
+  <si>
+    <t>Se visualiza debajo del campo un mensaje indicando que dicho campo es obligatorio</t>
+  </si>
+  <si>
+    <t>Se visualiza un mensaje debajo del botón indicando que hay campos en blanco</t>
+  </si>
+  <si>
+    <t>DB_0118_01</t>
+  </si>
+  <si>
+    <t>General responsive</t>
+  </si>
+  <si>
+    <t>El sitio debe ser responsive para poder ser utilizado en desktop, tablet y mobile</t>
+  </si>
+  <si>
+    <t>Ingresar al home de DB desde desktop</t>
+  </si>
+  <si>
+    <t>Ingresar al home de DB desde pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se visualiza el home de DB. </t>
+  </si>
+  <si>
+    <t>Acceder a herramienta de inspeccionar haciendo click secundario en pantalla y cambiar dimensiones a "ipad Air"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El home de DB se modifica y para adaptarse al nuevo tamaño de pantalla </t>
+  </si>
+  <si>
+    <t>Acceder a herramienta de inspeccionar haciendo click secundario en pantalla y cambiar dimensiones a "iPhone XR"</t>
+  </si>
+  <si>
+    <t>DB_LISTA_RESERVAS_01</t>
+  </si>
+  <si>
+    <t>Página de reservas</t>
+  </si>
+  <si>
+    <t>El usuario logueado puede visualizar sus reservas
+en la página destinada para tal fin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">Reserva
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Haber realizado una reserva</t>
+    </r>
+  </si>
+  <si>
+    <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/</t>
+  </si>
+  <si>
+    <t>Se visualiza el home de DB</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Click en boton iniciar sesión</t>
+  </si>
+  <si>
+    <t>Se visualiza pantalla de inicio de sesión</t>
+  </si>
+  <si>
+    <t>Completar campo de email con email válido registrado</t>
+  </si>
+  <si>
+    <t>Se visualiza el email ingresado</t>
+  </si>
+  <si>
+    <t>Click en mis reservas</t>
+  </si>
+  <si>
+    <t>Se visualizan en pantalla las reservas realizadas por el usuario</t>
   </si>
   <si>
     <t>Resultado Actual</t>
@@ -415,6 +1004,101 @@
       </rPr>
       <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/details/3</t>
     </r>
+  </si>
+  <si>
+    <t>04_01</t>
+  </si>
+  <si>
+    <t>Login contraseña incorrecta</t>
+  </si>
+  <si>
+    <t>Al ingresar una contraseña incorrecta el formulario debe indicar que el email o la contraseña son incorrectos</t>
+  </si>
+  <si>
+    <t>Se renderiza el msj
+"
+Lamentablemente no ha podido iniciar sesión. Por favor intente más tarde."</t>
+  </si>
+  <si>
+    <t>El formulario indica que el email o la contraseña es incorrecta</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">ingresar a 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/login</t>
+    </r>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uzNpgL9woEPh9Xan6OPm6DZqS6d5ro7R/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Ingresar email registrado</t>
+  </si>
+  <si>
+    <t>ingresar contraseña incorecta</t>
+  </si>
+  <si>
+    <t>click en ingresar</t>
+  </si>
+  <si>
+    <t>04_02</t>
+  </si>
+  <si>
+    <t>Al intentar iniciar sesión con un email no registrado el sistema debería informar al usuario que este no se encuentra registrado</t>
+  </si>
+  <si>
+    <t>El sistema indica que el usuario no se encuentra registrado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">ingresar a 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://digitalbooking-equipo8f.s3-website.us-east-2.amazonaws.com/login</t>
+    </r>
+  </si>
+  <si>
+    <t>06/</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>Ingresar email no registrado</t>
+  </si>
+  <si>
+    <t>ingresar contraseña de más de siete caracteres</t>
+  </si>
+  <si>
+    <t>Click en ingresar</t>
   </si>
   <si>
     <t>ID Issue</t>
@@ -579,7 +1263,22 @@
     <t>Se verificó la implementación del template general responsive.</t>
   </si>
   <si>
-    <t>Ejecución de casos de prueba - Ciclo 1</t>
+    <t>PE-401</t>
+  </si>
+  <si>
+    <t>Se verificó la creación de la pantalla de formulario de creación de producto.</t>
+  </si>
+  <si>
+    <t>PE-402</t>
+  </si>
+  <si>
+    <t>Se verificó la implementación del template "creación de producto exitosa"</t>
+  </si>
+  <si>
+    <t>PE-403</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
   <si>
     <t>Fecha y Hora</t>
@@ -603,9 +1302,6 @@
     <t>Ciclo</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
     <t>DB_BOTON_RESERVA_002</t>
   </si>
   <si>
@@ -616,6 +1312,12 @@
   </si>
   <si>
     <t>DB_BUSQUEDA_001</t>
+  </si>
+  <si>
+    <t>DB_0473_01</t>
+  </si>
+  <si>
+    <t>Error msj</t>
   </si>
 </sst>
 </file>
@@ -627,7 +1329,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -647,11 +1349,25 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -677,6 +1393,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -697,16 +1418,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +1434,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF9CB9C"/>
         <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -755,8 +1478,14 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border/>
     <border>
       <left style="thin">
@@ -832,11 +1561,32 @@
         <color rgb="FF000000"/>
       </right>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -864,10 +1614,13 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -889,7 +1642,10 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -901,11 +1657,76 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -916,10 +1737,10 @@
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -931,81 +1752,117 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="6" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf quotePrefix="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1341,6 +2198,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="21.13"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
     <col customWidth="1" min="3" max="3" width="26.13"/>
     <col customWidth="1" min="4" max="4" width="35.13"/>
@@ -1412,63 +2270,63 @@
       <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="11" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="11" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="5"/>
@@ -1476,13 +2334,13 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="5"/>
@@ -1499,444 +2357,2154 @@
       <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>37</v>
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="11" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="11" t="s">
+      <c r="G13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="G14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="18" t="s">
+      <c r="H14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="G24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="11" t="s">
+      <c r="K24" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="11" t="s">
+      <c r="G25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="18" t="s">
+      <c r="G26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="11" t="s">
+      <c r="G28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="G29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11" t="s">
+      <c r="K29" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11" t="s">
+      <c r="G30" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="18" t="s">
+      <c r="G31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="s">
+      <c r="G56" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="G57" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="11" t="s">
+      <c r="K57" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="11" t="s">
+      <c r="G58" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="18" t="s">
+      <c r="G59" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="17"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="17"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="17"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="17"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="17"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="17"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="17"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="17"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="51">
+        <v>4.0</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="H74" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="17"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="51">
+        <v>5.0</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="51">
+        <v>6.0</v>
+      </c>
+      <c r="G76" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="29"/>
+      <c r="C77" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H77" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J77" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="17"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="H78" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="17"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="17"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="51">
+        <v>4.0</v>
+      </c>
+      <c r="G80" s="42"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="17"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="51">
+        <v>5.0</v>
+      </c>
+      <c r="G81" s="42"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="51">
+        <v>6.0</v>
+      </c>
+      <c r="G82" s="42"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H101" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F103" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K103" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+    </row>
     <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I109" s="17"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="I110" s="17"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H111" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="G112" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H112" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="I112" s="17"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="G113" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="H113" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="7"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I115" s="17"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I116" s="17"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G117" s="20"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="17"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="G118" s="20"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="17"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="G119" s="20"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="5"/>
+    </row>
     <row r="120" ht="15.75" customHeight="1"/>
     <row r="121" ht="15.75" customHeight="1"/>
     <row r="122" ht="15.75" customHeight="1"/>
@@ -2819,25 +5387,56 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="I21:I24"/>
+  <mergeCells count="169">
+    <mergeCell ref="C93:C102"/>
+    <mergeCell ref="B93:B102"/>
+    <mergeCell ref="D93:D102"/>
+    <mergeCell ref="E93:E102"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="J93:J102"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="I93:I102"/>
+    <mergeCell ref="K93:K102"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="K77:K82"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -2845,67 +5444,188 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="J29:J34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="I47:I52"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="D114:D119"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="J83:J92"/>
+    <mergeCell ref="K83:K92"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="I114:I119"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="E114:E119"/>
+    <mergeCell ref="I83:I92"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="E83:E92"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A93:A102"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="C71:C76"/>
   </mergeCells>
-  <conditionalFormatting sqref="I4 I8 I13 I17 I21">
+  <conditionalFormatting sqref="I4 I8 I12 I16 I20 I24 I29 I35 I41 I47 I53 I57 I61 I65:I83 I93 I103 I108 I114">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I8 I13 I17 I21">
+  <conditionalFormatting sqref="I4 I8 I12 I16 I20 I24 I29 I35 I41 I47 I53 I57 I61 I65:I83 I93 I103 I108 I114">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I8 I13 I17 I21">
+  <conditionalFormatting sqref="I4 I8 I12 I16 I20 I24 I29 I35 I41 I47 I53 I57 I61 I65:I83 I93 I103 I108 I114">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I8 I13 I17 I21">
+  <conditionalFormatting sqref="I4 I8 I12 I16 I20 I24 I29 I35 I41 I47 I53 I57 I61 I65:I83 I93 I103 I108 I114">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I4 I8 I13 I17 I21">
+    <dataValidation type="list" allowBlank="1" sqref="I4 I8 I12 I16 I20 I24 I29 I35 I41 I47 I53 I57 I61 I65 I71 I77 I83 I93 I103 I108 I114">
       <formula1>"TO DO,In Progress,In Review,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
+    <hyperlink display="DB_ALTA_USUARIO_003&#10;contar con email registrado" location="'Diseño - CP'!A17:A20" ref="E4"/>
     <hyperlink r:id="rId1" ref="G4"/>
-    <hyperlink r:id="rId2" ref="G13"/>
-    <hyperlink r:id="rId3" ref="G17"/>
-    <hyperlink r:id="rId4" ref="G21"/>
+    <hyperlink display="ALTA_USUARIO_003&#10;contar con usuario  y password" location="'Diseño - CP'!A17:A20" ref="E8"/>
+    <hyperlink r:id="rId2" ref="G8"/>
+    <hyperlink r:id="rId3" ref="G12"/>
+    <hyperlink r:id="rId4" ref="G16"/>
+    <hyperlink display="ALTA_USUARIO_003&#10;contar con usuario  y password" location="'Diseño - CP'!A17:A20" ref="E20"/>
+    <hyperlink r:id="rId5" ref="G20"/>
+    <hyperlink r:id="rId6" ref="G29"/>
+    <hyperlink r:id="rId7" ref="G35"/>
+    <hyperlink r:id="rId8" ref="G41"/>
+    <hyperlink r:id="rId9" ref="G47"/>
+    <hyperlink r:id="rId10" ref="G53"/>
+    <hyperlink r:id="rId11" ref="G57"/>
+    <hyperlink r:id="rId12" ref="G61"/>
+    <hyperlink r:id="rId13" ref="G65"/>
+    <hyperlink display="Realizar los pasos del caso de prueba DB_0473_01" location="'Diseño - CP'!A25:A29" ref="G83"/>
+    <hyperlink display="Realizar los pasos del caso de prueba DB_0473_01" location="'Diseño - CP'!A25:A29" ref="G93"/>
+    <hyperlink display="Reserva&#10;Haber realizado una reserva" location="'Diseño - CP'!A71:A76" ref="E108"/>
+    <hyperlink r:id="rId14" ref="G108"/>
+    <hyperlink r:id="rId15" ref="G114"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2924,48 +5644,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="54" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>81</v>
+      <c r="I1" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -2975,10 +5695,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="55" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="5"/>
@@ -2990,108 +5710,108 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="57">
         <v>45008.0</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="33">
+      <c r="C3" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="60">
         <v>1.0</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>91</v>
+      <c r="H3" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="33">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="60">
         <v>2.0</v>
       </c>
-      <c r="H4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="H4" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="33">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="60">
         <v>3.0</v>
       </c>
-      <c r="H5" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="H5" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="33">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="60">
         <v>4.0</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
@@ -3100,10 +5820,10 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="33">
+      <c r="G7" s="60">
         <v>5.0</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -3113,48 +5833,48 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="27" t="s">
+      <c r="E8" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="54" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>81</v>
+      <c r="I8" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -3164,10 +5884,10 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="5"/>
@@ -3179,108 +5899,108 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="A10" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="57">
         <v>45008.0</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="33">
+      <c r="C10" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="60">
         <v>1.0</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>91</v>
+      <c r="H10" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="33">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="60">
         <v>2.0</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="H11" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="33">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="60">
         <v>3.0</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="H12" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="33">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="60">
         <v>4.0</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
@@ -3289,10 +6009,10 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="33">
+      <c r="G14" s="60">
         <v>5.0</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3302,48 +6022,48 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="E15" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="54" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>81</v>
+      <c r="I15" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="O15" s="53" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="16">
@@ -3353,10 +6073,10 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="55" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="5"/>
@@ -3368,108 +6088,108 @@
       <c r="O16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="30">
+      <c r="A17" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="57">
         <v>45008.0</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="33">
+      <c r="C17" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="60">
         <v>1.0</v>
       </c>
-      <c r="H17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>91</v>
+      <c r="H17" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="O17" s="63" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="33">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="60">
         <v>2.0</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="H18" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
     </row>
     <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="33">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="60">
         <v>3.0</v>
       </c>
-      <c r="H19" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="H19" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="33">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="60">
         <v>4.0</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
     </row>
     <row r="21">
       <c r="A21" s="5"/>
@@ -3478,10 +6198,10 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="33">
+      <c r="G21" s="60">
         <v>5.0</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3490,39 +6210,434 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
+    <row r="22">
+      <c r="A22" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="57">
+        <v>45021.0</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="O24" s="63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="60">
+        <v>2.0</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="60">
+        <v>3.0</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="60">
+        <v>4.0</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="60">
+        <v>5.0</v>
+      </c>
+      <c r="H28" s="60"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="N29" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="57">
+        <v>45021.0</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="I31" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="N31" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" s="63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="60">
+        <v>2.0</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="60">
+        <v>3.0</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="60">
+        <v>4.0</v>
+      </c>
+      <c r="H34" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="60">
+        <v>5.0</v>
+      </c>
+      <c r="H35" s="60"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="135">
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="M10:M14"/>
+    <mergeCell ref="N10:N14"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="I10:I14"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="D17:D21"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="M17:M21"/>
     <mergeCell ref="N17:N21"/>
     <mergeCell ref="O17:O21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="M17:M21"/>
-    <mergeCell ref="J17:J21"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
@@ -3530,20 +6645,33 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="O3:O7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="I3:I7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
@@ -3551,28 +6679,60 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K10:K14"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M10:M14"/>
-    <mergeCell ref="N10:N14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="N31:N35"/>
+    <mergeCell ref="O31:O35"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="M31:M35"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink display="03_56" location="'Prueba Exploratoria'!A4" ref="A3"/>
@@ -3584,8 +6744,12 @@
     <hyperlink display="03_63" location="'Prueba Exploratoria'!A8" ref="A17"/>
     <hyperlink r:id="rId5" ref="H17"/>
     <hyperlink r:id="rId6" ref="O17"/>
+    <hyperlink r:id="rId7" ref="H24"/>
+    <hyperlink r:id="rId8" ref="O24"/>
+    <hyperlink r:id="rId9" ref="H31"/>
+    <hyperlink r:id="rId10" ref="O31"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3599,402 +6763,462 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="45.5"/>
+    <col customWidth="1" min="6" max="6" width="69.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>106</v>
+      <c r="A1" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="19">
+      <c r="A2" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="20">
         <v>54.0</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="40">
+      <c r="C2" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="70">
         <v>45008.0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>110</v>
+      <c r="E2" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="20">
         <v>56.0</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="40">
+      <c r="C3" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="70">
         <v>45008.0</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>113</v>
+      <c r="E3" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="20">
         <v>61.0</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="40">
+      <c r="C4" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="70">
         <v>45008.0</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>115</v>
+      <c r="E4" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="20">
         <v>62.0</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="40">
+      <c r="C5" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="70">
         <v>45008.0</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>117</v>
+      <c r="E5" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="A6" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="20">
         <v>63.0</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="40">
+      <c r="C6" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="70">
         <v>45008.0</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>119</v>
+      <c r="E6" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="20">
         <v>64.0</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="C7" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="70">
         <v>45008.0</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>121</v>
+      <c r="E7" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="20">
         <v>65.0</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="40">
+      <c r="C8" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="70">
         <v>45008.0</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>124</v>
+      <c r="E8" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="A9" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="27">
         <v>35.0</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="46">
+      <c r="C9" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="76">
         <v>44992.0</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>126</v>
+      <c r="E9" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="25">
+      <c r="A10" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="27">
         <v>19.0</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="46">
+      <c r="C10" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="76">
         <v>44992.0</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>128</v>
+      <c r="F10" s="27" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="25">
+      <c r="A11" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="27">
         <v>39.0</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="46">
+      <c r="C11" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="76">
         <v>44992.0</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>130</v>
+      <c r="E11" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="25">
+      <c r="A12" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="27">
         <v>10.0</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="46">
+      <c r="C12" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="76">
         <v>44985.0</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>132</v>
+      <c r="E12" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="19">
+      <c r="A13" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="20">
         <v>11.0</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="40">
+      <c r="C13" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="70">
         <v>44985.0</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>134</v>
+      <c r="E13" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="19">
+      <c r="A14" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="20">
         <v>7.0</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="40">
+      <c r="C14" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="70">
         <v>44985.0</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>136</v>
+      <c r="E14" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="19">
+      <c r="A15" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="20">
         <v>8.0</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="40">
+      <c r="C15" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="70">
         <v>44985.0</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>138</v>
+      <c r="E15" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="20">
         <v>6.0</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="40">
+      <c r="C16" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="70">
         <v>44985.0</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="19" t="s">
-        <v>140</v>
+      <c r="E16" s="78"/>
+      <c r="F16" s="20" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="A17" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="20">
         <v>7.0</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="40">
+      <c r="C17" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="70">
         <v>44985.0</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>136</v>
+      <c r="E17" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="A18" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="20">
         <v>9.0</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="40">
+      <c r="C18" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="70">
         <v>44985.0</v>
       </c>
-      <c r="E18" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>144</v>
+      <c r="E18" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="19">
+      <c r="A19" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="20">
         <v>18.0</v>
       </c>
-      <c r="C19" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="40">
+      <c r="C19" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="70">
         <v>44979.0</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>146</v>
+      <c r="E19" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="A20" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="20">
         <v>1.0</v>
       </c>
-      <c r="C20" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="40">
+      <c r="C20" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="70">
         <v>44979.0</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>148</v>
+      <c r="E20" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="20">
+        <v>70.0</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="70">
+        <v>45019.0</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="83">
+        <v>71.0</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="85">
+        <v>45019.0</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="83">
+        <v>73.0</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="89">
+        <v>44979.0</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="90" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4019,214 +7243,463 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="22.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="s">
-        <v>149</v>
-      </c>
+      <c r="A1" s="91"/>
     </row>
     <row r="3">
-      <c r="A3" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="92" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>156</v>
+      <c r="C3" s="92" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="54">
+      <c r="A4" s="93">
         <v>44993.0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="19">
+      <c r="C4" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="20">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57">
+      <c r="A5" s="96">
         <v>45008.0</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="96">
+        <v>45006.0</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="95"/>
+      <c r="E6" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="78"/>
+      <c r="H6" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="70">
+        <v>45008.0</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="70">
+        <v>45020.0</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="70">
+        <v>45020.0</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="70">
+        <v>45020.0</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B19" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="57">
-        <v>45006.0</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="40">
-        <v>45008.0</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="C19" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B21" s="101"/>
+      <c r="C21" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B22" s="101"/>
+      <c r="C22" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="78"/>
+      <c r="E22" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="93">
+        <v>45021.0</v>
+      </c>
+      <c r="B23" s="101"/>
+      <c r="C23" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="20">
+        <v>4.0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C12">
+  <conditionalFormatting sqref="C4:C23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
+  <conditionalFormatting sqref="C4:C23">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
+  <conditionalFormatting sqref="C4:C23">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
+  <conditionalFormatting sqref="C4:C23">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
+  <conditionalFormatting sqref="C4:C23">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C4:C12">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C23">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4237,7 +7710,21 @@
     <hyperlink display="DH_BOTON_RESERVA_003" location="'Diseño - CP'!A12:A15" ref="B6"/>
     <hyperlink display="03_56" location="Defectos!A3:A7" ref="F6"/>
     <hyperlink display="DB_BUSQUEDA_001" location="'Diseño - CP'!A17:A20" ref="B7"/>
+    <hyperlink display="DB_0473_01" location="'Diseño - CP'!A25:A29" ref="B8"/>
+    <hyperlink display="DB_0473_02" location="'Diseño - CP'!A30:A39" ref="B9"/>
+    <hyperlink display="DB_0473_03" location="'Diseño - CP'!A40:A49" ref="B10"/>
+    <hyperlink display="DB_LOGIN_001" location="'Diseño - CP'!A4:A7" ref="B12"/>
+    <hyperlink r:id="rId1" ref="D12"/>
+    <hyperlink display="DB_LOGIN_002" location="'Diseño - CP'!A8:A11" ref="B13"/>
+    <hyperlink display="DB_LOGIN_003" location="'Diseño - CP'!A12:A15" ref="B14"/>
+    <hyperlink r:id="rId2" ref="D14"/>
+    <hyperlink display="DB_LOGIN_004" location="'Diseño - CP'!A16:A19" ref="B15"/>
+    <hyperlink display="DB_LOGIN_005" location="'Diseño - CP'!A29:A34" ref="B16"/>
+    <hyperlink display="DB_ALTA_USUARIO_003" location="'Diseño - CP'!A29:A34" ref="B17"/>
+    <hyperlink display="DB_RESERVA_01" location="'Diseño - CP'!A71:A76" ref="B18"/>
+    <hyperlink display="DB_RESERVA_02" location="'Diseño - CP'!A77:A82" ref="B19"/>
+    <hyperlink display="DB_0473_02" location="'Diseño - CP'!A83:A92" ref="B20"/>
   </hyperlinks>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>